--- a/public/assets/excelTemplates/PresetQRTemplate.xlsx
+++ b/public/assets/excelTemplates/PresetQRTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumedh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumedh/Documents/PersonalProjects/charity-tracker/public/assets/excelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4C1553-E958-194A-AF67-D61C2EFEB59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A06C4-4FCA-0D44-919E-7BA2543A6D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6940" yWindow="4780" windowWidth="27640" windowHeight="16940" xr2:uid="{75A87431-68D4-B446-A926-4F6BB2BE245F}"/>
   </bookViews>
@@ -602,6 +602,11 @@
       <c r="C30" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{6E2FB44F-08F4-D243-9C27-51811D61120F}">
+      <formula1>"SHIRAS_SARA,SHIRAS_SARA_SUPPORTER,LEV_SHULAMIS,TIFERES_ROCHEL,"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>